--- a/addressbook_testing/addressbook_testing/groups.xlsx
+++ b/addressbook_testing/addressbook_testing/groups.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\source\repos\alexanderKo1\ReposTesting\addressbook_testing\addressbook-test-data-generators\bin\Debug\net5.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\source\repos\alexanderKo1\ReposTesting\addressbook_testing\addressbook_testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B061C16-F54C-417B-A2FA-43B029F3F66C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1BD0F5-4CB5-4EB7-A57B-0750B81563BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="18000" windowHeight="9360" xr2:uid="{9F0E6B9E-F957-472E-8A43-2ED87749A0D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{9F0E6B9E-F957-472E-8A43-2ED87749A0D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -30,26 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>*WM2ESBQ%</t>
-  </si>
-  <si>
-    <t>[JTJ@[</t>
-  </si>
-  <si>
-    <t>&lt;^!Q</t>
-  </si>
-  <si>
-    <t>/2,&lt;1P</t>
-  </si>
-  <si>
-    <t>&lt;!54&amp;@?</t>
-  </si>
-  <si>
-    <t>,D[</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,30 +383,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680A90BA-F7C5-4FAE-A6DC-0A20172E5198}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1">
         <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2">
         <v>5</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
